--- a/CuadroResultadosModelo.xlsx
+++ b/CuadroResultadosModelo.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="53">
   <si>
     <t xml:space="preserve">Detección automática de cubrebocas a través de redes convolucionales</t>
   </si>
@@ -106,7 +106,12 @@
     <t xml:space="preserve">2 minutos</t>
   </si>
   <si>
-    <t xml:space="preserve">-</t>
+    <t xml:space="preserve">Train: 0.1294
+Test: 0.1938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Train: 0.9853
+Test: 0.9653</t>
   </si>
   <si>
     <t xml:space="preserve">Modelo base+PCA</t>
@@ -156,6 +161,44 @@
     <t xml:space="preserve">1 minuto</t>
   </si>
   <si>
+    <t xml:space="preserve">Train: 0.0427
+Test: 0.0968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Train: 0.9978
+Test: 0.9764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Train: 0.9980
+Test: 0.9683</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Precision:
+Train: 0.9950
+Test: 0.9828
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Recall:
+Train: 0.9986
+Test: 0.9448</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Tipo modelo</t>
   </si>
   <si>
@@ -200,7 +243,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -246,6 +289,12 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="8"/>
@@ -352,7 +401,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -439,11 +488,11 @@
   </sheetPr>
   <dimension ref="B1:M1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.31"/>
@@ -453,9 +502,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="16.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="13" style="0" width="10.71"/>
   </cols>
@@ -547,14 +595,14 @@
       <c r="H9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6" t="s">
+      <c r="I9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="J9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
       <c r="M9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -562,7 +610,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="8"/>
@@ -571,12 +619,8 @@
       <c r="H10" s="9"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
-      <c r="K10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
       <c r="M10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -584,7 +628,7 @@
         <v>17</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="8"/>
@@ -593,12 +637,8 @@
       <c r="H11" s="9"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
-      <c r="K11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
       <c r="M11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -606,7 +646,7 @@
         <v>17</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="8"/>
@@ -615,12 +655,8 @@
       <c r="H12" s="9"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
-      <c r="K12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
       <c r="M12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -628,7 +664,7 @@
         <v>17</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="8"/>
@@ -637,12 +673,8 @@
       <c r="H13" s="9"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
-      <c r="K13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
       <c r="M13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -650,7 +682,7 @@
         <v>17</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="8"/>
@@ -659,12 +691,8 @@
       <c r="H14" s="9"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
-      <c r="K14" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
       <c r="M14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -672,7 +700,7 @@
         <v>17</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="8"/>
@@ -681,12 +709,8 @@
       <c r="H15" s="9"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
-      <c r="K15" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
       <c r="M15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -694,7 +718,7 @@
         <v>17</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="8"/>
@@ -703,12 +727,8 @@
       <c r="H16" s="9"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
-      <c r="K16" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
       <c r="M16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -716,7 +736,7 @@
         <v>17</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="8"/>
@@ -725,12 +745,8 @@
       <c r="H17" s="9"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
-      <c r="K17" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
       <c r="M17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -738,7 +754,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="8"/>
@@ -747,12 +763,8 @@
       <c r="H18" s="9"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
-      <c r="K18" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
       <c r="M18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -760,7 +772,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="8"/>
@@ -769,12 +781,8 @@
       <c r="H19" s="9"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
-      <c r="K19" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
       <c r="M19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -782,7 +790,7 @@
         <v>17</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="8"/>
@@ -791,12 +799,8 @@
       <c r="H20" s="9"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
-      <c r="K20" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
       <c r="M20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -804,7 +808,7 @@
         <v>17</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="8"/>
@@ -813,12 +817,8 @@
       <c r="H21" s="9"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
-      <c r="K21" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
       <c r="M21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -826,7 +826,7 @@
         <v>17</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="8"/>
@@ -835,12 +835,8 @@
       <c r="H22" s="9"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
-      <c r="K22" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
       <c r="M22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -848,7 +844,7 @@
         <v>17</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="8"/>
@@ -857,12 +853,8 @@
       <c r="H23" s="9"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
-      <c r="K23" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
       <c r="M23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -870,7 +862,7 @@
         <v>17</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="8"/>
@@ -879,12 +871,8 @@
       <c r="H24" s="9"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
-      <c r="K24" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
       <c r="M24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -892,7 +880,7 @@
         <v>17</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="8"/>
@@ -901,12 +889,8 @@
       <c r="H25" s="9"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
-      <c r="K25" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L25" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
       <c r="M25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -914,7 +898,7 @@
         <v>17</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="8"/>
@@ -923,12 +907,8 @@
       <c r="H26" s="9"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
-      <c r="K26" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L26" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
       <c r="M26" s="3"/>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -936,7 +916,7 @@
         <v>17</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="8"/>
@@ -945,12 +925,8 @@
       <c r="H27" s="9"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
-      <c r="K27" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
       <c r="M27" s="3"/>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -958,7 +934,7 @@
         <v>17</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="8"/>
@@ -967,12 +943,8 @@
       <c r="H28" s="9"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
-      <c r="K28" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L28" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
       <c r="M28" s="3"/>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -980,7 +952,7 @@
         <v>17</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="8"/>
@@ -989,12 +961,8 @@
       <c r="H29" s="9"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
-      <c r="K29" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L29" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
       <c r="M29" s="3"/>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1002,7 +970,7 @@
         <v>17</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="8"/>
@@ -1011,12 +979,8 @@
       <c r="H30" s="9"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
-      <c r="K30" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L30" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
       <c r="M30" s="3"/>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1024,7 +988,7 @@
         <v>17</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="8"/>
@@ -1033,12 +997,8 @@
       <c r="H31" s="9"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
-      <c r="K31" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L31" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
       <c r="M31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1046,7 +1006,7 @@
         <v>17</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="8"/>
@@ -1055,12 +1015,8 @@
       <c r="H32" s="9"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
-      <c r="K32" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L32" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
       <c r="M32" s="3"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1068,7 +1024,7 @@
         <v>17</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="8"/>
@@ -1077,12 +1033,8 @@
       <c r="H33" s="9"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
-      <c r="K33" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L33" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
       <c r="M33" s="3"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1090,7 +1042,7 @@
         <v>17</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="8"/>
@@ -1099,12 +1051,8 @@
       <c r="H34" s="9"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
-      <c r="K34" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L34" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
       <c r="M34" s="3"/>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1112,7 +1060,7 @@
         <v>17</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="8"/>
@@ -1121,12 +1069,8 @@
       <c r="H35" s="9"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
-      <c r="K35" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L35" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
       <c r="M35" s="3"/>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1134,7 +1078,7 @@
         <v>17</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="8"/>
@@ -1143,12 +1087,8 @@
       <c r="H36" s="9"/>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
-      <c r="K36" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L36" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
       <c r="M36" s="3"/>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1156,7 +1096,7 @@
         <v>17</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="8"/>
@@ -1165,12 +1105,8 @@
       <c r="H37" s="9"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
-      <c r="K37" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L37" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
       <c r="M37" s="3"/>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1178,7 +1114,7 @@
         <v>17</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="8"/>
@@ -1187,12 +1123,8 @@
       <c r="H38" s="9"/>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
-      <c r="K38" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L38" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
       <c r="M38" s="3"/>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1200,7 +1132,7 @@
         <v>17</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="8"/>
@@ -1209,17 +1141,13 @@
       <c r="H39" s="9"/>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
-      <c r="K39" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L39" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
       <c r="M39" s="3"/>
     </row>
     <row r="40" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>18</v>
@@ -1234,23 +1162,31 @@
         <v>20</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L40" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="M40" s="3"/>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B41" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="8"/>
@@ -1265,10 +1201,10 @@
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B42" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="8"/>
@@ -1283,10 +1219,10 @@
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B43" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="8"/>
@@ -1301,10 +1237,10 @@
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B44" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="8"/>
@@ -1319,10 +1255,10 @@
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B45" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="8"/>
@@ -1337,10 +1273,10 @@
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B46" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="8"/>
@@ -1355,10 +1291,10 @@
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B47" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="8"/>
@@ -1373,10 +1309,10 @@
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B48" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="8"/>
@@ -1391,10 +1327,10 @@
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B49" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="8"/>
@@ -1409,10 +1345,10 @@
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B50" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D50" s="7"/>
       <c r="E50" s="8"/>
@@ -1427,10 +1363,10 @@
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B51" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="8"/>
@@ -1445,10 +1381,10 @@
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B52" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D52" s="7"/>
       <c r="E52" s="8"/>
@@ -1463,10 +1399,10 @@
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B53" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="8"/>
@@ -1481,10 +1417,10 @@
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B54" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D54" s="7"/>
       <c r="E54" s="8"/>
@@ -1499,10 +1435,10 @@
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B55" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D55" s="7"/>
       <c r="E55" s="8"/>
@@ -1517,10 +1453,10 @@
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B56" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D56" s="7"/>
       <c r="E56" s="8"/>
@@ -1535,10 +1471,10 @@
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B57" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D57" s="7"/>
       <c r="E57" s="8"/>
@@ -1553,10 +1489,10 @@
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B58" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D58" s="7"/>
       <c r="E58" s="8"/>
@@ -1571,10 +1507,10 @@
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B59" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D59" s="7"/>
       <c r="E59" s="8"/>
@@ -1589,10 +1525,10 @@
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B60" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D60" s="7"/>
       <c r="E60" s="8"/>
@@ -1607,10 +1543,10 @@
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B61" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D61" s="7"/>
       <c r="E61" s="8"/>
@@ -1625,10 +1561,10 @@
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B62" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D62" s="7"/>
       <c r="E62" s="8"/>
@@ -1643,10 +1579,10 @@
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B63" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D63" s="7"/>
       <c r="E63" s="8"/>
@@ -1661,10 +1597,10 @@
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B64" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D64" s="7"/>
       <c r="E64" s="8"/>
@@ -1679,10 +1615,10 @@
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B65" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D65" s="7"/>
       <c r="E65" s="8"/>
@@ -1697,10 +1633,10 @@
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B66" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C66" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="D66" s="7"/>
       <c r="E66" s="8"/>
@@ -1715,10 +1651,10 @@
     </row>
     <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B67" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C67" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="D67" s="7"/>
       <c r="E67" s="8"/>
@@ -1733,10 +1669,10 @@
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B68" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C68" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="D68" s="7"/>
       <c r="E68" s="8"/>
@@ -1751,10 +1687,10 @@
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B69" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C69" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="D69" s="7"/>
       <c r="E69" s="8"/>
@@ -1769,10 +1705,10 @@
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B70" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C70" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="D70" s="7"/>
       <c r="E70" s="8"/>
@@ -2757,9 +2693,9 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="37.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="4" style="0" width="10.71"/>
@@ -2770,28 +2706,28 @@
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3"/>
       <c r="B3" s="5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5"/>
       <c r="B5" s="10" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2800,7 +2736,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2815,7 +2751,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2824,7 +2760,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2833,19 +2769,19 @@
         <v>14</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="5"/>
       <c r="B11" s="10" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="5"/>
       <c r="B12" s="10" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/CuadroResultadosModelo.xlsx
+++ b/CuadroResultadosModelo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel\Desktop\dockerfiles\aprendizaje_profundo\model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanes08/Documents/Maestria/2_Semestre/AprendizajeProfundo/proyecto/repo/Aprendizaje_profundo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AA0D9CD-FFD8-49D0-8610-B4685BD6FBAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C405351B-4184-D747-9B30-9DDC878E805D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-38400" yWindow="-12680" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabla" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="78">
   <si>
     <t>Detección automática de cubrebocas a través de redes convolucionales</t>
   </si>
@@ -333,11 +333,41 @@
     <t>Train: 0.9934
 Test: 0.9502</t>
   </si>
+  <si>
+    <t>64 X 64 X 1
+64 X 64 X 16
+32 X 32 X 16
+32 X 32 X 32
+16 X 16 X 32
+16 X 16 X 64
+8 X 8 X 64
+4,096
+256
+128
+64
+2</t>
+  </si>
+  <si>
+    <t>Train: 0.2033
+Test: 0.2071</t>
+  </si>
+  <si>
+    <t>Train: 0.9708
+Test:0.9609</t>
+  </si>
+  <si>
+    <t>Precision:
+Train: 0.96
+Test: 0.95
+Recall:
+Train: 0.93
+Test: 0.95</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20">
     <font>
       <sz val="11"/>
@@ -619,25 +649,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle name="Accent" xfId="2"/>
-    <cellStyle name="Accent 1" xfId="3"/>
-    <cellStyle name="Accent 2" xfId="4"/>
-    <cellStyle name="Accent 3" xfId="5"/>
-    <cellStyle name="Bad" xfId="6"/>
-    <cellStyle name="Error" xfId="7"/>
-    <cellStyle name="Footnote" xfId="8"/>
-    <cellStyle name="Good" xfId="9"/>
-    <cellStyle name="Heading" xfId="10"/>
-    <cellStyle name="Heading 1" xfId="11"/>
-    <cellStyle name="Heading 2" xfId="12"/>
-    <cellStyle name="Hyperlink" xfId="13"/>
+    <cellStyle name="Accent" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Accent 1" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Accent 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Accent 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Bad" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Error" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Footnote" xfId="8" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Good" xfId="9" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Heading" xfId="10" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Heading 1" xfId="11" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Heading 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Hyperlink" xfId="13" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Note" xfId="14"/>
-    <cellStyle name="Result" xfId="15"/>
-    <cellStyle name="Status" xfId="16"/>
-    <cellStyle name="Text" xfId="17"/>
-    <cellStyle name="Warning" xfId="18"/>
+    <cellStyle name="Note" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Result" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Status" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Text" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Warning" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -948,28 +978,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:M1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="51.88671875" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.5546875" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" customWidth="1"/>
-    <col min="9" max="9" width="16.44140625" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="51.83203125" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" customWidth="1"/>
+    <col min="6" max="6" width="18.5" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" customWidth="1"/>
+    <col min="9" max="9" width="16.5" customWidth="1"/>
     <col min="10" max="11" width="16.6640625" customWidth="1"/>
     <col min="12" max="12" width="21.33203125" customWidth="1"/>
-    <col min="13" max="26" width="13.88671875" customWidth="1"/>
-    <col min="27" max="64" width="18.77734375" customWidth="1"/>
+    <col min="13" max="26" width="13.83203125" customWidth="1"/>
+    <col min="27" max="64" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="14.25" customHeight="1"/>
@@ -1037,7 +1067,7 @@
       </c>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="2:13" ht="172.8">
+    <row r="9" spans="2:13" ht="192">
       <c r="B9" s="6" t="s">
         <v>17</v>
       </c>
@@ -1159,7 +1189,7 @@
       <c r="L14" s="6"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="2:13" ht="14.4">
+    <row r="15" spans="2:13">
       <c r="B15" s="6" t="s">
         <v>17</v>
       </c>
@@ -1267,7 +1297,7 @@
       <c r="L20" s="6"/>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="2:13" ht="100.8">
+    <row r="21" spans="2:13" ht="112">
       <c r="B21" s="6" t="s">
         <v>17</v>
       </c>
@@ -1301,7 +1331,7 @@
       <c r="L21" s="8"/>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="2:13" ht="100.8">
+    <row r="22" spans="2:13" ht="112">
       <c r="B22" s="6" t="s">
         <v>17</v>
       </c>
@@ -1335,7 +1365,7 @@
       <c r="L22" s="6"/>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="2:13" ht="158.4">
+    <row r="23" spans="2:13" ht="176">
       <c r="B23" s="6" t="s">
         <v>17</v>
       </c>
@@ -1367,7 +1397,7 @@
       <c r="L23" s="6"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="2:13" ht="14.4">
+    <row r="24" spans="2:13">
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="7"/>
@@ -1381,7 +1411,7 @@
       <c r="L24" s="6"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="2:13" ht="259.2">
+    <row r="25" spans="2:13" ht="288">
       <c r="B25" s="6" t="s">
         <v>17</v>
       </c>
@@ -1665,7 +1695,7 @@
       <c r="L39" s="6"/>
       <c r="M39" s="3"/>
     </row>
-    <row r="40" spans="2:13" ht="172.8">
+    <row r="40" spans="2:13" ht="192">
       <c r="B40" s="6" t="s">
         <v>38</v>
       </c>
@@ -1881,7 +1911,7 @@
       <c r="L50" s="6"/>
       <c r="M50" s="3"/>
     </row>
-    <row r="51" spans="2:13" ht="14.25" customHeight="1">
+    <row r="51" spans="2:13" ht="14" customHeight="1">
       <c r="B51" s="6" t="s">
         <v>38</v>
       </c>
@@ -1899,22 +1929,38 @@
       <c r="L51" s="6"/>
       <c r="M51" s="3"/>
     </row>
-    <row r="52" spans="2:13" ht="14.25" customHeight="1">
+    <row r="52" spans="2:13" ht="216" customHeight="1">
       <c r="B52" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="7"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
+      <c r="D52" s="7">
+        <v>1103090</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J52" s="8" t="s">
+        <v>76</v>
+      </c>
       <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
+      <c r="L52" s="8" t="s">
+        <v>77</v>
+      </c>
       <c r="M52" s="3"/>
     </row>
     <row r="53" spans="2:13" ht="14.25" customHeight="1">
@@ -3199,18 +3245,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="41.109375" customWidth="1"/>
-    <col min="2" max="2" width="22.21875" customWidth="1"/>
+    <col min="1" max="1" width="41.1640625" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" customWidth="1"/>
     <col min="3" max="3" width="48.6640625" customWidth="1"/>
-    <col min="4" max="26" width="13.88671875" customWidth="1"/>
-    <col min="27" max="64" width="18.77734375" customWidth="1"/>
+    <col min="4" max="26" width="13.83203125" customWidth="1"/>
+    <col min="27" max="64" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.25" customHeight="1"/>

--- a/CuadroResultadosModelo.xlsx
+++ b/CuadroResultadosModelo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanes08/Documents/Maestria/2_Semestre/AprendizajeProfundo/proyecto/repo/Aprendizaje_profundo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C405351B-4184-D747-9B30-9DDC878E805D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA287D5-BC84-41B7-837D-76372CCFF525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-12680" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabla" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="83">
   <si>
     <t>Detección automática de cubrebocas a través de redes convolucionales</t>
   </si>
@@ -249,9 +249,6 @@
     <t>1Conv2D
 1 MaxPool2D
 1 Hidden</t>
-  </si>
-  <si>
-    <t>ok</t>
   </si>
   <si>
     <t>5Conv2D
@@ -362,6 +359,28 @@
 Recall:
 Train: 0.93
 Test: 0.95</t>
+  </si>
+  <si>
+    <t>1s 16ms</t>
+  </si>
+  <si>
+    <t>Train:  0.0160
+Test: 0.3147</t>
+  </si>
+  <si>
+    <t>Train: 0.9942
+Test: 0.9321</t>
+  </si>
+  <si>
+    <t>1 L1_L2</t>
+  </si>
+  <si>
+    <t>Train: 0.0239
+Test: 0.2214</t>
+  </si>
+  <si>
+    <t>Train:0.9917
+Test: 0.9532</t>
   </si>
 </sst>
 </file>
@@ -619,7 +638,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -645,6 +664,15 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -979,27 +1007,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M1048576"/>
+  <dimension ref="B1:M1048571"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" customWidth="1"/>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="51.83203125" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" customWidth="1"/>
-    <col min="6" max="6" width="18.5" customWidth="1"/>
-    <col min="7" max="7" width="15.83203125" customWidth="1"/>
-    <col min="8" max="8" width="13.83203125" customWidth="1"/>
-    <col min="9" max="9" width="16.5" customWidth="1"/>
+    <col min="1" max="1" width="13.77734375" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="51.77734375" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" customWidth="1"/>
     <col min="10" max="11" width="16.6640625" customWidth="1"/>
     <col min="12" max="12" width="21.33203125" customWidth="1"/>
-    <col min="13" max="26" width="13.83203125" customWidth="1"/>
-    <col min="27" max="64" width="18.83203125" customWidth="1"/>
+    <col min="13" max="26" width="13.77734375" customWidth="1"/>
+    <col min="27" max="64" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="14.25" customHeight="1"/>
@@ -1067,7 +1095,7 @@
       </c>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="2:13" ht="192">
+    <row r="9" spans="2:13" ht="172.8">
       <c r="B9" s="6" t="s">
         <v>17</v>
       </c>
@@ -1189,256 +1217,282 @@
       <c r="L14" s="6"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="2:13">
+    <row r="15" spans="2:13" ht="172.8">
       <c r="B15" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
+      <c r="D15" s="13">
+        <v>1103220</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>79</v>
+      </c>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="2:13" ht="14.25" customHeight="1">
+    <row r="16" spans="2:13" ht="172.8">
       <c r="B16" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
+      <c r="D16" s="13">
+        <v>1103220</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>82</v>
+      </c>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="2:13" ht="14.25" customHeight="1">
+    <row r="17" spans="2:13" ht="100.8">
       <c r="B17" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1048980</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="2:13" ht="14.25" customHeight="1">
+    <row r="18" spans="2:13" ht="100.8">
       <c r="B18" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="D18" s="7">
+        <v>2097876</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="2:13" ht="14.25" customHeight="1">
+    <row r="19" spans="2:13" ht="158.4">
       <c r="B19" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="D19" s="7">
+        <v>4240212</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>72</v>
+      </c>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="2:13" ht="14.25" customHeight="1">
+    <row r="20" spans="2:13" ht="259.2">
       <c r="B20" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="D20" s="12">
+        <v>647828</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="2:13" ht="112">
+    <row r="21" spans="2:13" ht="14.25" customHeight="1">
       <c r="B21" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1048980</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="L21" s="8"/>
+        <v>32</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="2:13" ht="112">
+    <row r="22" spans="2:13" ht="14.25" customHeight="1">
       <c r="B22" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="7">
-        <v>2097876</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>60</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="2:13" ht="176">
+    <row r="23" spans="2:13" ht="14.25" customHeight="1">
       <c r="B23" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="7">
-        <v>4240212</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>73</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="2:13">
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
+    <row r="24" spans="2:13" ht="14.25" customHeight="1">
+      <c r="B24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="D24" s="7"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="9"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="2:13" ht="288">
+    <row r="25" spans="2:13" ht="14.25" customHeight="1">
       <c r="B25" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="12">
-        <v>647828</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>65</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="M25" s="3"/>
@@ -1448,7 +1502,7 @@
         <v>17</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="8"/>
@@ -1466,7 +1520,7 @@
         <v>17</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="8"/>
@@ -1484,7 +1538,7 @@
         <v>17</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="8"/>
@@ -1502,7 +1556,7 @@
         <v>17</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="8"/>
@@ -1520,7 +1574,7 @@
         <v>17</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="8"/>
@@ -1538,7 +1592,7 @@
         <v>17</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="8"/>
@@ -1556,7 +1610,7 @@
         <v>17</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="8"/>
@@ -1574,7 +1628,7 @@
         <v>17</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="8"/>
@@ -1592,7 +1646,7 @@
         <v>17</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="8"/>
@@ -1605,30 +1659,48 @@
       <c r="L34" s="6"/>
       <c r="M34" s="3"/>
     </row>
-    <row r="35" spans="2:13" ht="14.25" customHeight="1">
+    <row r="35" spans="2:13" ht="172.8">
       <c r="B35" s="6" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="D35" s="7">
+        <v>1103025</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="M35" s="3"/>
     </row>
     <row r="36" spans="2:13" ht="14.25" customHeight="1">
       <c r="B36" s="6" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="8"/>
@@ -1643,10 +1715,10 @@
     </row>
     <row r="37" spans="2:13" ht="14.25" customHeight="1">
       <c r="B37" s="6" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="8"/>
@@ -1661,10 +1733,10 @@
     </row>
     <row r="38" spans="2:13" ht="14.25" customHeight="1">
       <c r="B38" s="6" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="8"/>
@@ -1679,10 +1751,10 @@
     </row>
     <row r="39" spans="2:13" ht="14.25" customHeight="1">
       <c r="B39" s="6" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="8"/>
@@ -1695,40 +1767,22 @@
       <c r="L39" s="6"/>
       <c r="M39" s="3"/>
     </row>
-    <row r="40" spans="2:13" ht="192">
+    <row r="40" spans="2:13" ht="14.25" customHeight="1">
       <c r="B40" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D40" s="7">
-        <v>1103025</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="I40" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J40" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="K40" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="L40" s="8" t="s">
-        <v>44</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D40" s="7"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
       <c r="M40" s="3"/>
     </row>
     <row r="41" spans="2:13" ht="14.25" customHeight="1">
@@ -1736,7 +1790,7 @@
         <v>38</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="8"/>
@@ -1754,7 +1808,7 @@
         <v>38</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="8"/>
@@ -1772,7 +1826,7 @@
         <v>38</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="8"/>
@@ -1790,7 +1844,7 @@
         <v>38</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="8"/>
@@ -1808,7 +1862,7 @@
         <v>38</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="8"/>
@@ -1821,7 +1875,7 @@
       <c r="L45" s="6"/>
       <c r="M45" s="3"/>
     </row>
-    <row r="46" spans="2:13" ht="14.25" customHeight="1">
+    <row r="46" spans="2:13" ht="13.95" customHeight="1">
       <c r="B46" s="6" t="s">
         <v>38</v>
       </c>
@@ -1839,22 +1893,38 @@
       <c r="L46" s="6"/>
       <c r="M46" s="3"/>
     </row>
-    <row r="47" spans="2:13" ht="14.25" customHeight="1">
+    <row r="47" spans="2:13" ht="216" customHeight="1">
       <c r="B47" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D47" s="7"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="D47" s="7">
+        <v>1103090</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J47" s="8" t="s">
+        <v>75</v>
+      </c>
       <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
+      <c r="L47" s="8" t="s">
+        <v>76</v>
+      </c>
       <c r="M47" s="3"/>
     </row>
     <row r="48" spans="2:13" ht="14.25" customHeight="1">
@@ -1862,7 +1932,7 @@
         <v>38</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="8"/>
@@ -1880,7 +1950,7 @@
         <v>38</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="8"/>
@@ -1898,7 +1968,7 @@
         <v>38</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D50" s="7"/>
       <c r="E50" s="8"/>
@@ -1911,12 +1981,12 @@
       <c r="L50" s="6"/>
       <c r="M50" s="3"/>
     </row>
-    <row r="51" spans="2:13" ht="14" customHeight="1">
+    <row r="51" spans="2:13" ht="14.25" customHeight="1">
       <c r="B51" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="8"/>
@@ -1927,40 +1997,24 @@
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="2:13" ht="216" customHeight="1">
+      <c r="M51" s="5"/>
+    </row>
+    <row r="52" spans="2:13" ht="14.25" customHeight="1">
       <c r="B52" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D52" s="7">
-        <v>1103090</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="H52" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I52" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="J52" s="8" t="s">
-        <v>76</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D52" s="7"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
       <c r="K52" s="6"/>
-      <c r="L52" s="8" t="s">
-        <v>77</v>
-      </c>
+      <c r="L52" s="6"/>
       <c r="M52" s="3"/>
     </row>
     <row r="53" spans="2:13" ht="14.25" customHeight="1">
@@ -1968,7 +2022,7 @@
         <v>38</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="8"/>
@@ -1986,7 +2040,7 @@
         <v>38</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D54" s="7"/>
       <c r="E54" s="8"/>
@@ -2004,7 +2058,7 @@
         <v>38</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D55" s="7"/>
       <c r="E55" s="8"/>
@@ -2022,7 +2076,7 @@
         <v>38</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D56" s="7"/>
       <c r="E56" s="8"/>
@@ -2033,14 +2087,14 @@
       <c r="J56" s="6"/>
       <c r="K56" s="6"/>
       <c r="L56" s="6"/>
-      <c r="M56" s="5"/>
+      <c r="M56" s="3"/>
     </row>
     <row r="57" spans="2:13" ht="14.25" customHeight="1">
       <c r="B57" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D57" s="7"/>
       <c r="E57" s="8"/>
@@ -2058,7 +2112,7 @@
         <v>38</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D58" s="7"/>
       <c r="E58" s="8"/>
@@ -2076,7 +2130,7 @@
         <v>38</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D59" s="7"/>
       <c r="E59" s="8"/>
@@ -2094,7 +2148,7 @@
         <v>38</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D60" s="7"/>
       <c r="E60" s="8"/>
@@ -2112,7 +2166,7 @@
         <v>38</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D61" s="7"/>
       <c r="E61" s="8"/>
@@ -2130,7 +2184,7 @@
         <v>38</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D62" s="7"/>
       <c r="E62" s="8"/>
@@ -2148,7 +2202,7 @@
         <v>38</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D63" s="7"/>
       <c r="E63" s="8"/>
@@ -2166,7 +2220,7 @@
         <v>38</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D64" s="7"/>
       <c r="E64" s="8"/>
@@ -2184,7 +2238,7 @@
         <v>38</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D65" s="7"/>
       <c r="E65" s="8"/>
@@ -2198,94 +2252,19 @@
       <c r="M65" s="3"/>
     </row>
     <row r="66" spans="2:13" ht="14.25" customHeight="1">
-      <c r="B66" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D66" s="7"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6"/>
-      <c r="L66" s="6"/>
-      <c r="M66" s="3"/>
+      <c r="B66" s="3"/>
     </row>
     <row r="67" spans="2:13" ht="14.25" customHeight="1">
-      <c r="B67" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D67" s="7"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="6"/>
-      <c r="K67" s="6"/>
-      <c r="L67" s="6"/>
-      <c r="M67" s="3"/>
+      <c r="B67" s="3"/>
     </row>
     <row r="68" spans="2:13" ht="14.25" customHeight="1">
-      <c r="B68" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D68" s="7"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="6"/>
-      <c r="K68" s="6"/>
-      <c r="L68" s="6"/>
-      <c r="M68" s="3"/>
+      <c r="B68" s="3"/>
     </row>
     <row r="69" spans="2:13" ht="14.25" customHeight="1">
-      <c r="B69" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D69" s="7"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="6"/>
-      <c r="J69" s="6"/>
-      <c r="K69" s="6"/>
-      <c r="L69" s="6"/>
-      <c r="M69" s="3"/>
+      <c r="B69" s="3"/>
     </row>
     <row r="70" spans="2:13" ht="14.25" customHeight="1">
-      <c r="B70" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D70" s="7"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
-      <c r="K70" s="6"/>
-      <c r="L70" s="6"/>
-      <c r="M70" s="3"/>
+      <c r="B70" s="3"/>
     </row>
     <row r="71" spans="2:13" ht="14.25" customHeight="1">
       <c r="B71" s="3"/>
@@ -2302,21 +2281,11 @@
     <row r="75" spans="2:13" ht="14.25" customHeight="1">
       <c r="B75" s="3"/>
     </row>
-    <row r="76" spans="2:13" ht="14.25" customHeight="1">
-      <c r="B76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" ht="14.25" customHeight="1">
-      <c r="B77" s="3"/>
-    </row>
-    <row r="78" spans="2:13" ht="14.25" customHeight="1">
-      <c r="B78" s="3"/>
-    </row>
-    <row r="79" spans="2:13" ht="14.25" customHeight="1">
-      <c r="B79" s="3"/>
-    </row>
-    <row r="80" spans="2:13" ht="14.25" customHeight="1">
-      <c r="B80" s="3"/>
-    </row>
+    <row r="76" spans="2:13" ht="14.25" customHeight="1"/>
+    <row r="77" spans="2:13" ht="14.25" customHeight="1"/>
+    <row r="78" spans="2:13" ht="14.25" customHeight="1"/>
+    <row r="79" spans="2:13" ht="14.25" customHeight="1"/>
+    <row r="80" spans="2:13" ht="14.25" customHeight="1"/>
     <row r="81" ht="14.25" customHeight="1"/>
     <row r="82" ht="14.25" customHeight="1"/>
     <row r="83" ht="14.25" customHeight="1"/>
@@ -3224,19 +3193,14 @@
     <row r="985" ht="14.25" customHeight="1"/>
     <row r="986" ht="14.25" customHeight="1"/>
     <row r="987" ht="14.25" customHeight="1"/>
-    <row r="988" ht="14.25" customHeight="1"/>
-    <row r="989" ht="14.25" customHeight="1"/>
-    <row r="990" ht="14.25" customHeight="1"/>
-    <row r="991" ht="14.25" customHeight="1"/>
-    <row r="992" ht="14.25" customHeight="1"/>
+    <row r="1048564" ht="12.75" customHeight="1"/>
+    <row r="1048565" ht="12.75" customHeight="1"/>
+    <row r="1048566" ht="12.75" customHeight="1"/>
+    <row r="1048567" ht="12.75" customHeight="1"/>
+    <row r="1048568" ht="12.75" customHeight="1"/>
     <row r="1048569" ht="12.75" customHeight="1"/>
     <row r="1048570" ht="12.75" customHeight="1"/>
     <row r="1048571" ht="12.75" customHeight="1"/>
-    <row r="1048572" ht="12.75" customHeight="1"/>
-    <row r="1048573" ht="12.75" customHeight="1"/>
-    <row r="1048574" ht="12.75" customHeight="1"/>
-    <row r="1048575" ht="12.75" customHeight="1"/>
-    <row r="1048576" ht="12.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="1.1437000000000002" bottom="1.1437000000000002" header="0.75000000000000011" footer="0.75000000000000011"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3250,13 +3214,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="41.1640625" customWidth="1"/>
-    <col min="2" max="2" width="22.1640625" customWidth="1"/>
+    <col min="1" max="1" width="41.109375" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
     <col min="3" max="3" width="48.6640625" customWidth="1"/>
-    <col min="4" max="26" width="13.83203125" customWidth="1"/>
-    <col min="27" max="64" width="18.83203125" customWidth="1"/>
+    <col min="4" max="26" width="13.77734375" customWidth="1"/>
+    <col min="27" max="64" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.25" customHeight="1"/>

--- a/CuadroResultadosModelo.xlsx
+++ b/CuadroResultadosModelo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA287D5-BC84-41B7-837D-76372CCFF525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{44353449-6C9D-46C2-B6A3-EC7673EC484D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="85">
   <si>
     <t>Detección automática de cubrebocas a través de redes convolucionales</t>
   </si>
@@ -382,12 +382,20 @@
     <t>Train:0.9917
 Test: 0.9532</t>
   </si>
+  <si>
+    <t>Train: 0.0427
+Test:0.0570</t>
+  </si>
+  <si>
+    <t>Train:0.9937
+Test: 0.9746</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -518,6 +526,12 @@
       <color rgb="FF000000"/>
       <name val="Var(--jp-code-font-family)"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF212121"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -638,7 +652,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -675,6 +689,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="Accent" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1009,8 +1024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:M1048571"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -1785,22 +1800,34 @@
       <c r="L40" s="6"/>
       <c r="M40" s="3"/>
     </row>
-    <row r="41" spans="2:13" ht="14.25" customHeight="1">
+    <row r="41" spans="2:13" ht="172.8">
       <c r="B41" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="7"/>
-      <c r="E41" s="8"/>
+      <c r="D41" s="7">
+        <v>1103025</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
+      <c r="G41" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H41" s="16">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
       <c r="M41" s="3"/>
     </row>
     <row r="42" spans="2:13" ht="14.25" customHeight="1">
